--- a/1.xlsx
+++ b/1.xlsx
@@ -18,9 +18,212 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+  <si>
+    <t>港口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>港湾小镇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海滩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>村庄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城镇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>草原</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>森林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>峡谷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>墓地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岛屿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神殿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙漠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被埋葬的古城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资建船厂-贸易
+搭船出海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒馆(打听消息，结识一些人)
+招募出海人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漂流瓶（一些有用的信息）
+捡拾物体
+钓鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>休息(回复状态)
+帮村民干活（提升友好度，可能获赠物品）
+建设村庄(提升村长友好度，提升到一定程度之后可能会有事件触发)
+保卫村庄（提升威望）
+随机触发村庄内所有村民绑定的事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>休息（）
+打造装备
+参加各种聚会
+城主、帮派、市民等等更丰富的人和事件触发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打怪
+提升愉悦度
+捡到物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能（日&amp;夜）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打怪
+捡到物体
+发现遗迹
+砍树
+采集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祈祷
+四处逛逛
+投资建造</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>什么都没发现(非达到工会要求不能触发事件)
+工会锻炼
+工会福利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过坐船或者坐飞行怪兽到达
+钓鱼
+开荒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买使用权
+建造
+住宿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打怪
+探索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙漠或者森林探索开启
+打怪
+拾取物品
+可获取部分关键道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>露营
+采集（部分珍奇道具）
+战斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>露营
+捕鱼
+战斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祭拜
+到处看看
+挖(损坏功德，有可能触发其他事件)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒险者营地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招募伙伴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神秘组织</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打探消息
+雇佣杀手
+神秘组织任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇族</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>领取工资
+皇族任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,13 +231,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -49,11 +265,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -69,7 +289,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -114,7 +334,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -149,7 +369,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -331,12 +551,181 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="57" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="57" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/1.xlsx
+++ b/1.xlsx
@@ -4,10 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="主线" sheetId="2" r:id="rId1"/>
+    <sheet name="建筑" sheetId="1" r:id="rId2"/>
+    <sheet name="事件" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
   <si>
     <t>港口</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -186,12 +188,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>祭拜
-到处看看
-挖(损坏功德，有可能触发其他事件)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>冒险者营地</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -216,6 +212,103 @@
   <si>
     <t>领取工资
 皇族任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时代背景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个很平静的夜晚，
+一个情窦初开的中学生久久不能入睡，
+期待着与自己心爱女孩第二天的约会，
+不知多久才睡去。
+一觉醒来之后发现世界变了，
+因为时空错乱导致世界空间紊乱，
+只有找到并打败这个世界的恶魔领主才能让世界恢复平静，
+于是你踏上了打败大魔王的道路。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寻找大魔王的线索
+再寻找的过程中逐渐锻炼自己并成长
+在过程中不断结识新的伙伴
+和伙伴一起去对抗恶势力，寻找魔王
+找到魔王的信息
+探寻打败魔王的方法
+收集关键性的道具物品(传奇任务)
+打败大魔王你将会失去部分伙伴，你需要做出决定
+打败大魔王，世界恢复，你急着去找自己心爱的女孩
+其他结局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>古老的图书馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矿山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油田</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沼泽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑洞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祭拜
+到处看看
+挖(损坏功德，有可能触发其他事件)
+献花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入学
+学习
+守卫学校</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乡村学校/高级学堂/皇家学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查找资料
+发现新资料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开采
+投资
+占领</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>探索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打捞
+绕开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温泉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复体力</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -551,10 +644,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C20"/>
+  <dimension ref="B3:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="81.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:3" ht="114" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:C27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -643,12 +772,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:3" ht="57" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="42.75" x14ac:dyDescent="0.2">
@@ -701,26 +830,82 @@
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>39</v>
+    </row>
+    <row r="21" spans="2:3" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -728,4 +913,19 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/1.xlsx
+++ b/1.xlsx
@@ -7,9 +7,12 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="主线" sheetId="2" r:id="rId1"/>
-    <sheet name="建筑" sheetId="1" r:id="rId2"/>
-    <sheet name="事件" sheetId="3" r:id="rId3"/>
+    <sheet name="思考" sheetId="5" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId2"/>
+    <sheet name="名字" sheetId="4" r:id="rId3"/>
+    <sheet name="主线" sheetId="2" r:id="rId4"/>
+    <sheet name="建筑" sheetId="1" r:id="rId5"/>
+    <sheet name="事件" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="80">
   <si>
     <t>港口</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -231,6 +234,87 @@
 因为时空错乱导致世界空间紊乱，
 只有找到并打败这个世界的恶魔领主才能让世界恢复平静，
 于是你踏上了打败大魔王的道路。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>古老的图书馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矿山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油田</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沼泽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑洞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祭拜
+到处看看
+挖(损坏功德，有可能触发其他事件)
+献花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入学
+学习
+守卫学校</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乡村学校/高级学堂/皇家学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查找资料
+发现新资料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开采
+投资
+占领</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>探索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打捞
+绕开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温泉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复体力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在老子的BGM里没人能打败我(玩家获取BGM的buffer之后战斗力飙升)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风水龙穴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>镖局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陨铁坑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -247,68 +331,82 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>古老的图书馆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>矿山</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>油田</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沼泽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑洞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>祭拜
-到处看看
-挖(损坏功德，有可能触发其他事件)
-献花</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入学
-学习
-守卫学校</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乡村学校/高级学堂/皇家学院</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查找资料
-发现新资料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开采
-投资
-占领</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>探索</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打捞
-绕开</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>温泉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复体力</t>
+    <t>如何将平凡的事描述的真实而有意思？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于自身的塑造需要持之以恒的决心和耐力，不受外物干扰的定力。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要讲述的事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接镖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住宿
+获得物品
+遇到恶龙
+龙骨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取打造陨铁重剑的材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标，目标需要是自己思考自己探寻出来的，不是别人给你的，别人给的是任务，所以经常看到很多每日任务之类的神烦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>惊喜需要超出预期，预期是怎么产生的？是从无到有的探索，是和别人不一样的差异性，是轮回？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荣誉，超越别人超越自己是荣誉？很少有人达到的成就而你达到了是成就，别人没有能力你有是成就，给予也会产生荣誉等等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交互，人是社会人就会产生交互，交互必须是有效性交互，否则就是瞎忙活，比方说交易属于有效性交互，一键加好友就是瞎忙活</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意外</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒犯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吹牛？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不知道前面有什么，充满未知，会发现新鲜的东西。 金钱财富？宝物？征服欲望？占有的欲望？战斗的激情？残酷？死亡的恐惧？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保护照顾亲人的渴望</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生存下去的欲望</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生存的更好的渴望？还是贪欲？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挨着湖的矿山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欲望是一切的根本？无欲无求是一种什么状态？欲望得到满足是成就感，得不到满足时是失落感</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -644,31 +742,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:C4"/>
+  <dimension ref="B3:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="81.875" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="3" spans="2:3" ht="114" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" ht="142.5" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>42</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -680,10 +789,122 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C27"/>
+  <dimension ref="B3:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="81.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="114" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:C34"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -777,7 +998,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="42.75" x14ac:dyDescent="0.2">
@@ -854,58 +1075,87 @@
     </row>
     <row r="21" spans="2:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>56</v>
+    </row>
+    <row r="28" spans="2:3" ht="57" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -915,16 +1165,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/1.xlsx
+++ b/1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="思考" sheetId="5" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="81">
   <si>
     <t>港口</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -407,6 +407,10 @@
   </si>
   <si>
     <t>欲望是一切的根本？无欲无求是一种什么状态？欲望得到满足是成就感，得不到满足时是失落感</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多读书</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -742,10 +746,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:B10"/>
+  <dimension ref="B3:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -760,23 +764,28 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>67</v>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
         <v>70</v>
       </c>
     </row>
@@ -791,7 +800,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
